--- a/premise/iam_variables_mapping/mapping_overview.xlsx
+++ b/premise/iam_variables_mapping/mapping_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/iam_variables_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E4E77-7E03-534F-91B5-7036B8DC072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4716F-FBAD-5F46-B17B-71CF22BA5611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3520" windowWidth="27240" windowHeight="16440" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
+    <workbookView xWindow="2040" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="DAC" sheetId="7" r:id="rId7"/>
     <sheet name="Others" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="181029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="407">
   <si>
     <t>premise</t>
   </si>
@@ -1260,6 +1260,12 @@
   </si>
   <si>
     <t>Should be improved/refined</t>
+  </si>
+  <si>
+    <t>Emissions|CO2</t>
+  </si>
+  <si>
+    <t>Carbon Capture|Storage|Direct Air Capture|Cumulative</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1332,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3D90-03B9-ED48-81FF-52729677C770}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1678,13 +1684,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2501,13 +2507,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2900,7 +2906,7 @@
       <c r="B57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D57" t="s">
@@ -2914,7 +2920,7 @@
       <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="4"/>
       <c r="D58" t="s">
         <v>346</v>
       </c>
@@ -2926,7 +2932,7 @@
       <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D59" t="s">
@@ -2940,7 +2946,7 @@
       <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D60" t="s">
@@ -2954,7 +2960,7 @@
       <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D61" t="s">
@@ -2968,7 +2974,7 @@
       <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="4"/>
       <c r="D62" t="s">
         <v>350</v>
       </c>
@@ -2980,7 +2986,7 @@
       <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="4"/>
       <c r="D63" t="s">
         <v>351</v>
       </c>
@@ -2992,7 +2998,7 @@
       <c r="B64" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="4"/>
       <c r="D64" t="s">
         <v>352</v>
       </c>
@@ -3004,7 +3010,7 @@
       <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D65" t="s">
@@ -4311,13 +4317,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4403,13 +4409,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4449,7 +4455,7 @@
       <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4458,32 +4464,32 @@
       <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4552,7 +4558,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4568,13 +4574,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4611,8 +4617,8 @@
       <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4624,27 +4630,27 @@
       <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4697,8 +4703,8 @@
       <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4753,7 +4759,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4769,13 +4775,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4798,7 +4804,7 @@
       <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>162</v>
       </c>
@@ -4810,7 +4816,7 @@
       <c r="B11" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" t="s">
         <v>163</v>
       </c>
@@ -4822,7 +4828,7 @@
       <c r="B12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="D12" t="s">
         <v>164</v>
       </c>
@@ -4834,7 +4840,7 @@
       <c r="B13" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13" t="s">
         <v>165</v>
       </c>
@@ -4846,7 +4852,7 @@
       <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>166</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="B15" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="D15" t="s">
         <v>168</v>
       </c>
@@ -4870,7 +4876,7 @@
       <c r="B16" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="D16" t="s">
         <v>169</v>
       </c>
@@ -4882,7 +4888,7 @@
       <c r="B17" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="D17" t="s">
         <v>170</v>
       </c>
@@ -4894,7 +4900,7 @@
       <c r="B18" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>171</v>
       </c>
@@ -4906,7 +4912,7 @@
       <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>172</v>
       </c>
@@ -4920,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9191736F-E848-6A46-AEF1-2B2AE14A062E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4938,7 +4944,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4954,13 +4960,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4986,7 +4992,9 @@
       <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4998,7 +5006,9 @@
       <c r="C11" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5007,8 +5017,8 @@
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5017,8 +5027,8 @@
       <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,7 +5040,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5045,7 +5055,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5061,13 +5071,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -5121,7 +5131,9 @@
       <c r="C12" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5133,7 +5145,9 @@
       <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>405</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/iam_variables_mapping/mapping_overview.xlsx
+++ b/premise/iam_variables_mapping/mapping_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/iam_variables_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4716F-FBAD-5F46-B17B-71CF22BA5611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E4E77-7E03-534F-91B5-7036B8DC072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
+    <workbookView xWindow="2040" yWindow="3520" windowWidth="27240" windowHeight="16440" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="DAC" sheetId="7" r:id="rId7"/>
     <sheet name="Others" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="405">
   <si>
     <t>premise</t>
   </si>
@@ -1260,12 +1260,6 @@
   </si>
   <si>
     <t>Should be improved/refined</t>
-  </si>
-  <si>
-    <t>Emissions|CO2</t>
-  </si>
-  <si>
-    <t>Carbon Capture|Storage|Direct Air Capture|Cumulative</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1326,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3D90-03B9-ED48-81FF-52729677C770}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1684,13 +1678,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2507,13 +2501,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2906,7 +2900,7 @@
       <c r="B57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>252</v>
       </c>
       <c r="D57" t="s">
@@ -2920,7 +2914,7 @@
       <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="5"/>
       <c r="D58" t="s">
         <v>346</v>
       </c>
@@ -2932,7 +2926,7 @@
       <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>255</v>
       </c>
       <c r="D59" t="s">
@@ -2946,7 +2940,7 @@
       <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>257</v>
       </c>
       <c r="D60" t="s">
@@ -2960,7 +2954,7 @@
       <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D61" t="s">
@@ -2974,7 +2968,7 @@
       <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="5"/>
       <c r="D62" t="s">
         <v>350</v>
       </c>
@@ -2986,7 +2980,7 @@
       <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="5"/>
       <c r="D63" t="s">
         <v>351</v>
       </c>
@@ -2998,7 +2992,7 @@
       <c r="B64" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="5"/>
       <c r="D64" t="s">
         <v>352</v>
       </c>
@@ -3010,7 +3004,7 @@
       <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>264</v>
       </c>
       <c r="D65" t="s">
@@ -4317,13 +4311,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4409,13 +4403,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4455,7 +4449,7 @@
       <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4464,32 +4458,32 @@
       <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4558,7 +4552,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4574,13 +4568,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4617,8 +4611,8 @@
       <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4630,27 +4624,27 @@
       <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4703,8 +4697,8 @@
       <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4759,7 +4753,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4775,13 +4769,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4804,7 +4798,7 @@
       <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="D10" t="s">
         <v>162</v>
       </c>
@@ -4816,7 +4810,7 @@
       <c r="B11" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>163</v>
       </c>
@@ -4828,7 +4822,7 @@
       <c r="B12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>164</v>
       </c>
@@ -4840,7 +4834,7 @@
       <c r="B13" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="D13" t="s">
         <v>165</v>
       </c>
@@ -4852,7 +4846,7 @@
       <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>166</v>
       </c>
@@ -4864,7 +4858,7 @@
       <c r="B15" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>168</v>
       </c>
@@ -4876,7 +4870,7 @@
       <c r="B16" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>169</v>
       </c>
@@ -4888,7 +4882,7 @@
       <c r="B17" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
         <v>170</v>
       </c>
@@ -4900,7 +4894,7 @@
       <c r="B18" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>171</v>
       </c>
@@ -4912,7 +4906,7 @@
       <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="D19" t="s">
         <v>172</v>
       </c>
@@ -4926,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9191736F-E848-6A46-AEF1-2B2AE14A062E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4944,7 +4938,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4960,13 +4954,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4992,9 +4986,7 @@
       <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>406</v>
-      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5006,9 +4998,7 @@
       <c r="C11" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>406</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5017,8 +5007,8 @@
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5027,8 +5017,8 @@
       <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5040,7 +5030,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5055,7 +5045,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5071,13 +5061,13 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -5131,9 +5121,7 @@
       <c r="C12" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5145,9 +5133,7 @@
       <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/iam_variables_mapping/mapping_overview.xlsx
+++ b/premise/iam_variables_mapping/mapping_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/iam_variables_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A587D42-D975-E043-B465-646E56C45AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A427B5-0C36-4342-8BF5-2FDB80AD947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
+    <workbookView xWindow="7920" yWindow="1560" windowWidth="22200" windowHeight="17480" activeTab="4" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="DAC" sheetId="7" r:id="rId7"/>
     <sheet name="Others" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,9 +438,6 @@
     <t>Production|Industry|Steel|Primary</t>
   </si>
   <si>
-    <t>Production|Steel|Primary</t>
-  </si>
-  <si>
     <t>steel - primary</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>Production|Industry|Steel|Secondary</t>
-  </si>
-  <si>
-    <t>Production|Steel|Secondary</t>
   </si>
   <si>
     <t>FE|Industry|Steel|++|Primary</t>
@@ -1569,6 +1563,12 @@
   </si>
   <si>
     <t>Production|Secondary|Steel</t>
+  </si>
+  <si>
+    <t>Production|Industry|Iron and Steel|Primary</t>
+  </si>
+  <si>
+    <t>Production|Industry|Iron and Steel|EAF scrap</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3D90-03B9-ED48-81FF-52729677C770}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1970,17 +1970,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1988,13 +1988,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -2012,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2032,18 +2032,18 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2071,18 +2071,18 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2122,29 +2122,29 @@
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2164,29 +2164,29 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2240,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2257,12 +2257,12 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
@@ -2271,29 +2271,29 @@
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2309,29 +2309,29 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
@@ -2363,7 +2363,7 @@
         <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
         <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2400,7 +2400,7 @@
         <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2431,7 +2431,7 @@
         <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,10 +2448,10 @@
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,18 +2471,18 @@
         <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,7 +2538,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
         <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2580,7 +2580,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
@@ -2619,21 +2619,21 @@
         <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F51" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2650,10 +2650,10 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,10 +2684,10 @@
         <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F55" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2704,10 +2704,10 @@
         <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F56" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2735,18 +2735,18 @@
         <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2774,18 +2774,18 @@
         <v>103</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s">
         <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,7 +2805,7 @@
         <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2825,29 +2825,29 @@
         <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s">
         <v>85</v>
       </c>
       <c r="F65" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" t="s">
         <v>466</v>
-      </c>
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2867,29 +2867,29 @@
         <v>107</v>
       </c>
       <c r="F67" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s">
         <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s">
         <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2909,7 +2909,7 @@
         <v>104</v>
       </c>
       <c r="F70" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2943,7 +2943,7 @@
         <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2960,7 +2960,7 @@
         <v>107</v>
       </c>
       <c r="F73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2976,7 +2976,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
@@ -2985,45 +2985,45 @@
         <v>105</v>
       </c>
       <c r="F75" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B77" t="s">
         <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
@@ -3034,13 +3034,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3060,7 +3060,7 @@
         <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
         <v>109</v>
       </c>
       <c r="F82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <v>111</v>
       </c>
       <c r="F83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3128,7 +3128,7 @@
         <v>113</v>
       </c>
       <c r="F85" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3194,7 +3194,7 @@
         <v>116</v>
       </c>
       <c r="F91" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>115</v>
       </c>
       <c r="F92" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>118</v>
       </c>
       <c r="F94" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3252,7 +3252,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B96" t="s">
         <v>85</v>
@@ -3332,17 +3332,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3350,13 +3350,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -3374,1761 +3374,1761 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B172" t="s">
         <v>85</v>
       </c>
       <c r="D172" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B173" t="s">
         <v>85</v>
       </c>
       <c r="D173" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>85</v>
       </c>
       <c r="D174" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
         <v>85</v>
       </c>
       <c r="D175" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
         <v>85</v>
       </c>
       <c r="D188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B189" t="s">
         <v>85</v>
       </c>
       <c r="D189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B190" t="s">
         <v>85</v>
       </c>
       <c r="D190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B191" t="s">
         <v>85</v>
       </c>
       <c r="D191" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B192" t="s">
         <v>85</v>
       </c>
       <c r="D192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B193" t="s">
         <v>85</v>
       </c>
       <c r="D193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B194" t="s">
         <v>85</v>
       </c>
       <c r="D194" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B195" t="s">
         <v>85</v>
       </c>
       <c r="D195" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B196" t="s">
         <v>85</v>
       </c>
       <c r="D196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B197" t="s">
         <v>85</v>
       </c>
       <c r="D197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B200" t="s">
         <v>85</v>
       </c>
       <c r="D200" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B201" t="s">
         <v>85</v>
       </c>
       <c r="D201" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B202" t="s">
         <v>85</v>
       </c>
       <c r="D202" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B203" t="s">
         <v>85</v>
       </c>
       <c r="D203" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B204" t="s">
         <v>85</v>
       </c>
       <c r="C204" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B209" t="s">
         <v>85</v>
       </c>
       <c r="C209" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B210" t="s">
         <v>85</v>
       </c>
       <c r="C210" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B225" t="s">
         <v>85</v>
       </c>
       <c r="C225" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B226" t="s">
         <v>85</v>
       </c>
       <c r="C226" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B227" t="s">
         <v>85</v>
       </c>
       <c r="C227" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B228" t="s">
         <v>85</v>
       </c>
       <c r="C228" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B229" t="s">
         <v>85</v>
       </c>
       <c r="C229" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B230" t="s">
         <v>85</v>
       </c>
       <c r="C230" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B231" t="s">
         <v>85</v>
       </c>
       <c r="C231" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B235" t="s">
         <v>85</v>
       </c>
       <c r="C235" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B237" t="s">
         <v>85</v>
       </c>
       <c r="C237" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B239" t="s">
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B243" t="s">
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5141,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5154,17 +5154,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5172,13 +5172,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5196,15 +5196,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5269,17 +5269,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,13 +5287,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5311,10 +5311,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5331,7 +5331,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5354,74 +5354,74 @@
         <v>129</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D17" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5429,31 +5429,31 @@
         <v>126</v>
       </c>
       <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
         <v>176</v>
       </c>
-      <c r="C22" t="s">
-        <v>178</v>
-      </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -5461,25 +5461,26 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="D28" t="s">
-        <v>183</v>
-      </c>
       <c r="E28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5487,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7286CBD3-B5B6-B845-8B47-4BA99EB754E8}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5501,17 +5502,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5519,13 +5520,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5543,15 +5544,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -5560,15 +5561,15 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>506</v>
       </c>
       <c r="E10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -5578,86 +5579,86 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>507</v>
       </c>
       <c r="E19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -5667,16 +5668,16 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -5696,6 +5697,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5714,17 +5716,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5732,13 +5734,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5756,130 +5758,130 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
         <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5905,17 +5907,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5923,13 +5925,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -5947,43 +5949,43 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>174</v>
-      </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -5993,7 +5995,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -6022,17 +6024,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6040,13 +6042,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -6064,90 +6066,90 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
